--- a/data/coded_segments/zm_6_2.xlsx
+++ b/data/coded_segments/zm_6_2.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Whiting/Repositories/amr-db/data/coded_segments_rename/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{315D92AE-5949-A44C-B78B-B0E606C27B9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -2016,7 +2012,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2166,10 +2162,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2192,7 +2191,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2236,7 +2241,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -2248,7 +2253,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -2265,9 +2270,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2295,14 +2300,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2330,6 +2352,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2481,7 +2520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M218"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -2580,7 +2619,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="98" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="105" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -2621,7 +2660,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -2662,7 +2701,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -2703,7 +2742,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -3236,7 +3275,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
@@ -4425,7 +4464,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>13</v>
       </c>
@@ -4753,7 +4792,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>13</v>
       </c>
@@ -4999,7 +5038,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>13</v>
       </c>
@@ -5040,7 +5079,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -5163,7 +5202,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="126" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="135" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>13</v>
       </c>
@@ -5204,7 +5243,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>13</v>
       </c>
@@ -5245,7 +5284,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>13</v>
       </c>
@@ -5286,7 +5325,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>13</v>
       </c>
@@ -5327,7 +5366,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>13</v>
       </c>
@@ -5368,7 +5407,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>13</v>
       </c>
@@ -5409,7 +5448,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>13</v>
       </c>
@@ -5450,7 +5489,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>13</v>
       </c>
@@ -5614,7 +5653,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="126" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="135" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>13</v>
       </c>
@@ -5778,7 +5817,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>13</v>
       </c>
@@ -5819,7 +5858,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>13</v>
       </c>
@@ -5860,7 +5899,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>13</v>
       </c>
@@ -5942,7 +5981,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>13</v>
       </c>
@@ -6065,7 +6104,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>13</v>
       </c>
@@ -6106,7 +6145,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="140" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" ht="150" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>13</v>
       </c>
@@ -6188,7 +6227,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>13</v>
       </c>
@@ -6229,7 +6268,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="98" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" ht="105" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>13</v>
       </c>
@@ -6270,7 +6309,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>13</v>
       </c>
@@ -6311,7 +6350,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>13</v>
       </c>
@@ -6352,7 +6391,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
@@ -6393,7 +6432,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>13</v>
       </c>
@@ -6434,7 +6473,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>13</v>
       </c>
@@ -8361,7 +8400,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
         <v>13</v>
       </c>
@@ -8402,7 +8441,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
         <v>13</v>
       </c>
@@ -8607,7 +8646,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="154" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" ht="165" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
         <v>13</v>
       </c>
@@ -8689,7 +8728,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" ht="120" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
         <v>13</v>
       </c>
@@ -8730,7 +8769,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="84" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>13</v>
       </c>
@@ -8771,7 +8810,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
         <v>13</v>
       </c>
@@ -11354,7 +11393,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>13</v>
       </c>

--- a/data/coded_segments/zm_6_2.xlsx
+++ b/data/coded_segments/zm_6_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{315D92AE-5949-A44C-B78B-B0E606C27B9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7E1E80F-01D5-8741-97C2-F3B000B8BC1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="649">
   <si>
     <t>Color</t>
   </si>
@@ -2007,6 +2007,72 @@
   </si>
   <si>
     <t>7/16/18 15:57:00</t>
+  </si>
+  <si>
+    <t>chen</t>
+  </si>
+  <si>
+    <t>1/31/19 13:11:03</t>
+  </si>
+  <si>
+    <t>1/31/19 13:11:08</t>
+  </si>
+  <si>
+    <t>1/31/19 13:11:13</t>
+  </si>
+  <si>
+    <t>1/31/19 13:11:19</t>
+  </si>
+  <si>
+    <t>1/31/19 13:11:24</t>
+  </si>
+  <si>
+    <t>1/31/19 13:11:44</t>
+  </si>
+  <si>
+    <t>1/31/19 13:12:01</t>
+  </si>
+  <si>
+    <t>1/31/19 13:12:04</t>
+  </si>
+  <si>
+    <t>1/31/19 13:12:14</t>
+  </si>
+  <si>
+    <t>1/31/19 13:33:01</t>
+  </si>
+  <si>
+    <t>1/31/19 13:33:05</t>
+  </si>
+  <si>
+    <t>1/31/19 13:33:10</t>
+  </si>
+  <si>
+    <t>1/31/19 13:33:25</t>
+  </si>
+  <si>
+    <t>1/31/19 13:33:40</t>
+  </si>
+  <si>
+    <t>1/31/19 13:33:44</t>
+  </si>
+  <si>
+    <t>1/31/19 13:34:03</t>
+  </si>
+  <si>
+    <t>1/31/19 13:35:10</t>
+  </si>
+  <si>
+    <t>1/31/19 13:35:14</t>
+  </si>
+  <si>
+    <t>1/31/19 13:35:44</t>
+  </si>
+  <si>
+    <t>1/31/19 13:35:56</t>
+  </si>
+  <si>
+    <t>1/31/19 13:36:01</t>
   </si>
 </sst>
 </file>
@@ -2521,7 +2587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M218"/>
+  <dimension ref="A1:M239"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11473,6 +11539,867 @@
         <v>626</v>
       </c>
     </row>
+    <row r="219" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A219" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H219" s="3">
+        <v>0</v>
+      </c>
+      <c r="I219" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J219" s="3">
+        <v>4</v>
+      </c>
+      <c r="K219" s="4">
+        <v>9.1907541013740175E-3</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="M219" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A220" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H220" s="3">
+        <v>0</v>
+      </c>
+      <c r="I220" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J220" s="3">
+        <v>4</v>
+      </c>
+      <c r="K220" s="4">
+        <v>9.1907541013740175E-3</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="M220" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A221" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H221" s="3">
+        <v>0</v>
+      </c>
+      <c r="I221" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J221" s="3">
+        <v>4</v>
+      </c>
+      <c r="K221" s="4">
+        <v>9.1907541013740175E-3</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="M221" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A222" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H222" s="3">
+        <v>0</v>
+      </c>
+      <c r="I222" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J222" s="3">
+        <v>4</v>
+      </c>
+      <c r="K222" s="4">
+        <v>9.1907541013740175E-3</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="M222" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A223" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H223" s="3">
+        <v>0</v>
+      </c>
+      <c r="I223" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J223" s="3">
+        <v>4</v>
+      </c>
+      <c r="K223" s="4">
+        <v>9.1907541013740175E-3</v>
+      </c>
+      <c r="L223" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="M223" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A224" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H224" s="3">
+        <v>0</v>
+      </c>
+      <c r="I224" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J224" s="3">
+        <v>3</v>
+      </c>
+      <c r="K224" s="4">
+        <v>6.8930655760305135E-3</v>
+      </c>
+      <c r="L224" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="M224" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A225" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H225" s="3">
+        <v>0</v>
+      </c>
+      <c r="I225" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J225" s="3">
+        <v>4</v>
+      </c>
+      <c r="K225" s="4">
+        <v>9.1907541013740175E-3</v>
+      </c>
+      <c r="L225" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="M225" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A226" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H226" s="3">
+        <v>0</v>
+      </c>
+      <c r="I226" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J226" s="3">
+        <v>4</v>
+      </c>
+      <c r="K226" s="4">
+        <v>9.1907541013740175E-3</v>
+      </c>
+      <c r="L226" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="M226" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A227" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H227" s="3">
+        <v>0</v>
+      </c>
+      <c r="I227" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J227" s="3">
+        <v>4</v>
+      </c>
+      <c r="K227" s="4">
+        <v>9.1907541013740175E-3</v>
+      </c>
+      <c r="L227" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="M227" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A228" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H228" s="3">
+        <v>0</v>
+      </c>
+      <c r="I228" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="J228" s="3">
+        <v>3</v>
+      </c>
+      <c r="K228" s="4">
+        <v>1.6090104585679808E-2</v>
+      </c>
+      <c r="L228" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="M228" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A229" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="H229" s="3">
+        <v>0</v>
+      </c>
+      <c r="I229" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="J229" s="3">
+        <v>4</v>
+      </c>
+      <c r="K229" s="4">
+        <v>2.145347278090641E-2</v>
+      </c>
+      <c r="L229" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="M229" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A230" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="H230" s="3">
+        <v>0</v>
+      </c>
+      <c r="I230" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="J230" s="3">
+        <v>4</v>
+      </c>
+      <c r="K230" s="4">
+        <v>2.145347278090641E-2</v>
+      </c>
+      <c r="L230" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="M230" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A231" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="H231" s="3">
+        <v>0</v>
+      </c>
+      <c r="I231" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="J231" s="3">
+        <v>3</v>
+      </c>
+      <c r="K231" s="4">
+        <v>1.6090104585679808E-2</v>
+      </c>
+      <c r="L231" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="M231" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A232" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="H232" s="3">
+        <v>0</v>
+      </c>
+      <c r="I232" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="J232" s="3">
+        <v>4</v>
+      </c>
+      <c r="K232" s="4">
+        <v>2.145347278090641E-2</v>
+      </c>
+      <c r="L232" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="M232" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A233" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="H233" s="3">
+        <v>0</v>
+      </c>
+      <c r="I233" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="J233" s="3">
+        <v>4</v>
+      </c>
+      <c r="K233" s="4">
+        <v>2.145347278090641E-2</v>
+      </c>
+      <c r="L233" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="M233" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A234" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="H234" s="3">
+        <v>0</v>
+      </c>
+      <c r="I234" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="J234" s="3">
+        <v>4</v>
+      </c>
+      <c r="K234" s="4">
+        <v>2.145347278090641E-2</v>
+      </c>
+      <c r="L234" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="M234" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A235" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="H235" s="3">
+        <v>0</v>
+      </c>
+      <c r="I235" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="J235" s="3">
+        <v>3</v>
+      </c>
+      <c r="K235" s="4">
+        <v>8.0394468860542391E-3</v>
+      </c>
+      <c r="L235" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="M235" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A236" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="H236" s="3">
+        <v>0</v>
+      </c>
+      <c r="I236" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="J236" s="3">
+        <v>2</v>
+      </c>
+      <c r="K236" s="4">
+        <v>5.359631257369493E-3</v>
+      </c>
+      <c r="L236" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="M236" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A237" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H237" s="3">
+        <v>0</v>
+      </c>
+      <c r="I237" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="J237" s="3">
+        <v>2</v>
+      </c>
+      <c r="K237" s="4">
+        <v>5.359631257369493E-3</v>
+      </c>
+      <c r="L237" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="M237" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A238" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="H238" s="3">
+        <v>0</v>
+      </c>
+      <c r="I238" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="J238" s="3">
+        <v>3</v>
+      </c>
+      <c r="K238" s="4">
+        <v>8.0394468860542391E-3</v>
+      </c>
+      <c r="L238" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="M238" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A239" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="H239" s="3">
+        <v>0</v>
+      </c>
+      <c r="I239" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="J239" s="3">
+        <v>3</v>
+      </c>
+      <c r="K239" s="4">
+        <v>8.0394468860542391E-3</v>
+      </c>
+      <c r="L239" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="M239" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
